--- a/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3400,16 +3400,16 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="30.790625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="28.190625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="30.620625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="28.150625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" customFormat="1" ht="41.5039" customHeight="1">
+    <x:row r="1" spans="1:2" customFormat="1" ht="41.505502" customHeight="1">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2" customFormat="1" ht="27.669267" customHeight="1">
+    <x:row r="2" spans="1:2" customFormat="1" ht="27.667499" customHeight="1">
       <x:c r="A2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3463,24 +3463,24 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="2.930625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.150625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="17.315676" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="18.195145" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="17.902475" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="17.495861" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="16.978396" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="16.354019" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="15.627482" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="14.804314" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="13.89078" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="12.893833" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="11.82106" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="10.680625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="9.481208" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="8.231937" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="6.94232" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="5.622172" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="4.281539" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.890625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="17.056666" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="17.939095" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="17.651335" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="17.251541" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="16.742756" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="16.128852" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="15.414502" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="14.605142" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="13.706932" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="12.726708" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="11.67193" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="10.550625" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="9.371327" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="8.143012" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="6.875027" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="5.577023" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="4.258879" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3563,24 +3563,24 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="2.930625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="51.020625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="61.832986" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="61.271495" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="60.340427" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="59.046868" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="57.400662" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="55.414338" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="53.103012" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="50.484276" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="47.57806" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="44.406482" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="40.993679" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="37.365625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="33.549931" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="29.575638" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="25.472992" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="21.273217" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="17.008275" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="50.980625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="61.793138" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="61.232103" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="60.30179" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="59.00928" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="57.36441" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="55.379697" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="53.070246" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="50.453635" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="47.549776" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="44.380771" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="40.970736" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="37.345625" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="33.533027" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="29.561957" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="25.462639" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="21.266271" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="17.004788" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3662,97 +3662,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" customFormat="1" ht="304.361925" customHeight="1">
+    <x:row r="1" spans="1:1" customFormat="1" ht="304.299994" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="2" spans="1:1" customFormat="1" ht="15.215" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="7.609048" customHeight="1">
+    <x:row r="3" spans="1:1" customFormat="1" ht="7.6075" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="16.063546" customHeight="1">
+    <x:row r="4" spans="1:1" customFormat="1" ht="16.060277" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="24.095319" customHeight="1">
+    <x:row r="5" spans="1:1" customFormat="1" ht="24.090416" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="32.127092" customHeight="1">
+    <x:row r="6" spans="1:1" customFormat="1" ht="32.120555" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" customFormat="1" ht="40.158865" customHeight="1">
+    <x:row r="7" spans="1:1" customFormat="1" ht="40.150694" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" customFormat="1" ht="48.190638" customHeight="1">
+    <x:row r="8" spans="1:1" customFormat="1" ht="48.180832" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" customFormat="1" ht="56.222411" customHeight="1">
+    <x:row r="9" spans="1:1" customFormat="1" ht="56.210971" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" customFormat="1" ht="64.254184" customHeight="1">
+    <x:row r="10" spans="1:1" customFormat="1" ht="64.24111" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" customFormat="1" ht="72.285957" customHeight="1">
+    <x:row r="11" spans="1:1" customFormat="1" ht="72.271248" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" customFormat="1" ht="80.31773" customHeight="1">
+    <x:row r="12" spans="1:1" customFormat="1" ht="80.301387" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" customFormat="1" ht="88.349503" customHeight="1">
+    <x:row r="13" spans="1:1" customFormat="1" ht="88.331526" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" customFormat="1" ht="96.381276" customHeight="1">
+    <x:row r="14" spans="1:1" customFormat="1" ht="96.361665" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" customFormat="1" ht="104.413049" customHeight="1">
+    <x:row r="15" spans="1:1" customFormat="1" ht="104.391803" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" customFormat="1" ht="112.444822" customHeight="1">
+    <x:row r="16" spans="1:1" customFormat="1" ht="112.421942" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" customFormat="1" ht="120.476595" customHeight="1">
+    <x:row r="17" spans="1:1" customFormat="1" ht="120.452081" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" customFormat="1" ht="128.508368" customHeight="1">
+    <x:row r="18" spans="1:1" customFormat="1" ht="128.482219" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" customFormat="1" ht="136.540141" customHeight="1">
+    <x:row r="19" spans="1:1" customFormat="1" ht="136.512358" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -3777,97 +3777,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" customFormat="1" ht="304.361925" customHeight="1">
+    <x:row r="1" spans="1:1" customFormat="1" ht="304.299994" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="83.0078" customHeight="1">
+    <x:row r="2" spans="1:1" customFormat="1" ht="82.993999" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="17.293292" customHeight="1">
+    <x:row r="3" spans="1:1" customFormat="1" ht="17.290417" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="34.586583" customHeight="1">
+    <x:row r="4" spans="1:1" customFormat="1" ht="34.580833" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="51.879875" customHeight="1">
+    <x:row r="5" spans="1:1" customFormat="1" ht="51.87125" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="69.173166" customHeight="1">
+    <x:row r="6" spans="1:1" customFormat="1" ht="69.161666" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" customFormat="1" ht="86.466458" customHeight="1">
+    <x:row r="7" spans="1:1" customFormat="1" ht="86.452083" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" customFormat="1" ht="103.759749" customHeight="1">
+    <x:row r="8" spans="1:1" customFormat="1" ht="103.742499" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" customFormat="1" ht="121.053041" customHeight="1">
+    <x:row r="9" spans="1:1" customFormat="1" ht="121.032916" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" customFormat="1" ht="138.346333" customHeight="1">
+    <x:row r="10" spans="1:1" customFormat="1" ht="138.323332" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" customFormat="1" ht="155.639624" customHeight="1">
+    <x:row r="11" spans="1:1" customFormat="1" ht="155.613749" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" customFormat="1" ht="172.932916" customHeight="1">
+    <x:row r="12" spans="1:1" customFormat="1" ht="172.904166" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" customFormat="1" ht="190.226207" customHeight="1">
+    <x:row r="13" spans="1:1" customFormat="1" ht="190.194582" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" customFormat="1" ht="207.519499" customHeight="1">
+    <x:row r="14" spans="1:1" customFormat="1" ht="207.484999" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" customFormat="1" ht="224.81279" customHeight="1">
+    <x:row r="15" spans="1:1" customFormat="1" ht="224.775415" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" customFormat="1" ht="242.106082" customHeight="1">
+    <x:row r="16" spans="1:1" customFormat="1" ht="242.065832" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" customFormat="1" ht="259.399374" customHeight="1">
+    <x:row r="17" spans="1:1" customFormat="1" ht="259.356248" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" customFormat="1" ht="276.692665" customHeight="1">
+    <x:row r="18" spans="1:1" customFormat="1" ht="276.646665" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" customFormat="1" ht="293.985957" customHeight="1">
+    <x:row r="19" spans="1:1" customFormat="1" ht="293.937081" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>60</x:v>
       </x:c>
@@ -3892,7 +3892,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.920625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="11.890625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="255" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3400,16 +3400,16 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.820625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="23.290625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="24.480625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="22.530625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" customFormat="1" ht="6.8" customHeight="1">
+    <x:row r="1" spans="1:2" customFormat="1" ht="34.2" customHeight="1">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2" customFormat="1" ht="6.8" customHeight="1">
+    <x:row r="2" spans="1:2" customFormat="1" ht="23.4" customHeight="1">
       <x:c r="A2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3462,25 +3462,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="2.700625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.530625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.475646" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="15.197835" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="14.958224" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="14.625324" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="14.201671" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="13.690487" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="13.095664" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="12.421729" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="11.67381" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="10.8576" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="9.97931" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="9.045625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="8.063651" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="7.040861" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="5.985039" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="4.90422" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="3.806631" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="3.700625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.630625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="15.435799" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="16.22738" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.842313" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="15.653515" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="15.092914" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="14.716468" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="13.997366" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="13.44471" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="12.588957" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="11.876883" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="10.910481" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="10.060625" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="9.012937" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="8.051121" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="6.95398" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="5.90943" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="4.796173" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3562,25 +3562,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="2.700625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="23.280625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="27.158545" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="26.912928" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="26.505645" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="25.939795" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="25.219684" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="24.350793" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="23.339735" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="22.194204" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="20.922918" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="19.535554" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="18.042669" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="16.455625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="14.786501" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="13.047999" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="11.253352" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="9.416216" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="7.550574" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="3.700625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="38.660625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="50.480019" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="50.059271" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="49.361584" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="48.392267" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="47.158698" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="45.670264" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="43.938293" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="41.975967" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="39.798221" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="37.421627" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="34.864274" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="32.145625" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="29.28637" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="26.308269" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="23.233989" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="20.086925" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="16.89103" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3662,97 +3662,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" customFormat="1" ht="136" customHeight="1">
+    <x:row r="1" spans="1:1" customFormat="1" ht="252" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="6.8" customHeight="1">
+    <x:row r="2" spans="1:1" customFormat="1" ht="12.6" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="3.4" customHeight="1">
+    <x:row r="3" spans="1:1" customFormat="1" ht="6.3" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="7.177778" customHeight="1">
+    <x:row r="4" spans="1:1" customFormat="1" ht="13.3" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="10.766667" customHeight="1">
+    <x:row r="5" spans="1:1" customFormat="1" ht="19.95" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="14.355556" customHeight="1">
+    <x:row r="6" spans="1:1" customFormat="1" ht="26.6" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" customFormat="1" ht="17.944444" customHeight="1">
+    <x:row r="7" spans="1:1" customFormat="1" ht="33.25" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" customFormat="1" ht="21.533333" customHeight="1">
+    <x:row r="8" spans="1:1" customFormat="1" ht="39.9" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" customFormat="1" ht="25.122222" customHeight="1">
+    <x:row r="9" spans="1:1" customFormat="1" ht="46.55" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" customFormat="1" ht="28.711111" customHeight="1">
+    <x:row r="10" spans="1:1" customFormat="1" ht="53.2" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" customFormat="1" ht="32.3" customHeight="1">
+    <x:row r="11" spans="1:1" customFormat="1" ht="59.85" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" customFormat="1" ht="35.888889" customHeight="1">
+    <x:row r="12" spans="1:1" customFormat="1" ht="66.5" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" customFormat="1" ht="39.477778" customHeight="1">
+    <x:row r="13" spans="1:1" customFormat="1" ht="73.15" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" customFormat="1" ht="43.066667" customHeight="1">
+    <x:row r="14" spans="1:1" customFormat="1" ht="79.8" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" customFormat="1" ht="46.655556" customHeight="1">
+    <x:row r="15" spans="1:1" customFormat="1" ht="86.45" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" customFormat="1" ht="50.244444" customHeight="1">
+    <x:row r="16" spans="1:1" customFormat="1" ht="93.1" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" customFormat="1" ht="53.833333" customHeight="1">
+    <x:row r="17" spans="1:1" customFormat="1" ht="99.75" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" customFormat="1" ht="57.422222" customHeight="1">
+    <x:row r="18" spans="1:1" customFormat="1" ht="106.4" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" customFormat="1" ht="61.011111" customHeight="1">
+    <x:row r="19" spans="1:1" customFormat="1" ht="113.05" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -3777,97 +3777,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" customFormat="1" ht="136" customHeight="1">
+    <x:row r="1" spans="1:1" customFormat="1" ht="252" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="27.2" customHeight="1">
+    <x:row r="2" spans="1:1" customFormat="1" ht="64.8" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="5.666667" customHeight="1">
+    <x:row r="3" spans="1:1" customFormat="1" ht="13.5" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="11.333333" customHeight="1">
+    <x:row r="4" spans="1:1" customFormat="1" ht="27" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="17" customHeight="1">
+    <x:row r="5" spans="1:1" customFormat="1" ht="40.5" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="22.666667" customHeight="1">
+    <x:row r="6" spans="1:1" customFormat="1" ht="54" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" customFormat="1" ht="28.333333" customHeight="1">
+    <x:row r="7" spans="1:1" customFormat="1" ht="67.5" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" customFormat="1" ht="34" customHeight="1">
+    <x:row r="8" spans="1:1" customFormat="1" ht="81" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" customFormat="1" ht="39.666667" customHeight="1">
+    <x:row r="9" spans="1:1" customFormat="1" ht="94.5" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" customFormat="1" ht="45.333333" customHeight="1">
+    <x:row r="10" spans="1:1" customFormat="1" ht="108" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" customFormat="1" ht="51" customHeight="1">
+    <x:row r="11" spans="1:1" customFormat="1" ht="121.5" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" customFormat="1" ht="56.666667" customHeight="1">
+    <x:row r="12" spans="1:1" customFormat="1" ht="135" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" customFormat="1" ht="62.333333" customHeight="1">
+    <x:row r="13" spans="1:1" customFormat="1" ht="148.5" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" customFormat="1" ht="68" customHeight="1">
+    <x:row r="14" spans="1:1" customFormat="1" ht="162" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" customFormat="1" ht="73.666667" customHeight="1">
+    <x:row r="15" spans="1:1" customFormat="1" ht="175.5" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" customFormat="1" ht="79.333333" customHeight="1">
+    <x:row r="16" spans="1:1" customFormat="1" ht="189" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" customFormat="1" ht="85" customHeight="1">
+    <x:row r="17" spans="1:1" customFormat="1" ht="202.5" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" customFormat="1" ht="90.666667" customHeight="1">
+    <x:row r="18" spans="1:1" customFormat="1" ht="216" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" customFormat="1" ht="96.333333" customHeight="1">
+    <x:row r="19" spans="1:1" customFormat="1" ht="229.5" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>60</x:v>
       </x:c>
@@ -3892,7 +3892,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="10.130625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="10.370625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="255" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3400,16 +3400,16 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="24.480625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="22.530625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="32.130625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="29.080625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" customFormat="1" ht="34.2" customHeight="1">
+    <x:row r="1" spans="1:2" customFormat="1" ht="37.85" customHeight="1">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2" customFormat="1" ht="23.4" customHeight="1">
+    <x:row r="2" spans="1:2" customFormat="1" ht="25.9" customHeight="1">
       <x:c r="A2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3462,25 +3462,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="3.700625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.630625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="15.435799" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="16.22738" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.842313" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="15.653515" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="15.092914" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="14.716468" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="13.997366" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="13.44471" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="12.588957" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="11.876883" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="10.910481" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="10.060625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="9.012937" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="8.051121" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="6.95398" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="5.90943" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="4.796173" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="4.570625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="17.500625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="20.111262" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="21.135091" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="20.643631" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="20.376255" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="19.651587" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="19.137172" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="18.201315" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="17.455493" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="16.336882" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="15.382313" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="14.114937" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="12.980625" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="11.602993" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="10.323404" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="8.877374" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="7.491387" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="6.020897" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3562,25 +3562,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="3.700625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="38.660625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="50.480019" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="50.059271" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="49.361584" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="48.392267" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="47.158698" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="45.670264" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="43.938293" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="41.975967" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="39.798221" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="37.421627" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="34.864274" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="32.145625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="29.28637" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="26.308269" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="23.233989" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="20.086925" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="16.89103" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="4.570625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="50.600625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="70.174584" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="69.617876" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="68.694739" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="67.412197" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="65.780013" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="63.810607" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="61.518968" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="58.922538" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="56.041076" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="52.896511" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="49.512777" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="45.915625" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="42.132432" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="38.19199" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="34.124288" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="29.960284" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="25.731669" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3662,97 +3662,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" customFormat="1" ht="252" customHeight="1">
+    <x:row r="1" spans="1:1" customFormat="1" ht="279" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="12.6" customHeight="1">
+    <x:row r="2" spans="1:1" customFormat="1" ht="13.95" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="6.3" customHeight="1">
+    <x:row r="3" spans="1:1" customFormat="1" ht="6.975" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="13.3" customHeight="1">
+    <x:row r="4" spans="1:1" customFormat="1" ht="14.725" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="19.95" customHeight="1">
+    <x:row r="5" spans="1:1" customFormat="1" ht="22.0875" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="26.6" customHeight="1">
+    <x:row r="6" spans="1:1" customFormat="1" ht="29.45" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" customFormat="1" ht="33.25" customHeight="1">
+    <x:row r="7" spans="1:1" customFormat="1" ht="36.8125" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" customFormat="1" ht="39.9" customHeight="1">
+    <x:row r="8" spans="1:1" customFormat="1" ht="44.175" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" customFormat="1" ht="46.55" customHeight="1">
+    <x:row r="9" spans="1:1" customFormat="1" ht="51.5375" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" customFormat="1" ht="53.2" customHeight="1">
+    <x:row r="10" spans="1:1" customFormat="1" ht="58.9" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" customFormat="1" ht="59.85" customHeight="1">
+    <x:row r="11" spans="1:1" customFormat="1" ht="66.2625" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" customFormat="1" ht="66.5" customHeight="1">
+    <x:row r="12" spans="1:1" customFormat="1" ht="73.625" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" customFormat="1" ht="73.15" customHeight="1">
+    <x:row r="13" spans="1:1" customFormat="1" ht="80.9875" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" customFormat="1" ht="79.8" customHeight="1">
+    <x:row r="14" spans="1:1" customFormat="1" ht="88.35" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" customFormat="1" ht="86.45" customHeight="1">
+    <x:row r="15" spans="1:1" customFormat="1" ht="95.7125" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" customFormat="1" ht="93.1" customHeight="1">
+    <x:row r="16" spans="1:1" customFormat="1" ht="103.075" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" customFormat="1" ht="99.75" customHeight="1">
+    <x:row r="17" spans="1:1" customFormat="1" ht="110.4375" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" customFormat="1" ht="106.4" customHeight="1">
+    <x:row r="18" spans="1:1" customFormat="1" ht="117.8" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" customFormat="1" ht="113.05" customHeight="1">
+    <x:row r="19" spans="1:1" customFormat="1" ht="125.1625" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -3777,97 +3777,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" customFormat="1" ht="252" customHeight="1">
+    <x:row r="1" spans="1:1" customFormat="1" ht="279" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="64.8" customHeight="1">
+    <x:row r="2" spans="1:1" customFormat="1" ht="71.72" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="13.5" customHeight="1">
+    <x:row r="3" spans="1:1" customFormat="1" ht="14.941667" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="27" customHeight="1">
+    <x:row r="4" spans="1:1" customFormat="1" ht="29.883333" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="40.5" customHeight="1">
+    <x:row r="5" spans="1:1" customFormat="1" ht="44.825" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="54" customHeight="1">
+    <x:row r="6" spans="1:1" customFormat="1" ht="59.766667" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" customFormat="1" ht="67.5" customHeight="1">
+    <x:row r="7" spans="1:1" customFormat="1" ht="74.708333" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" customFormat="1" ht="81" customHeight="1">
+    <x:row r="8" spans="1:1" customFormat="1" ht="89.65" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" customFormat="1" ht="94.5" customHeight="1">
+    <x:row r="9" spans="1:1" customFormat="1" ht="104.591667" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" customFormat="1" ht="108" customHeight="1">
+    <x:row r="10" spans="1:1" customFormat="1" ht="119.533333" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" customFormat="1" ht="121.5" customHeight="1">
+    <x:row r="11" spans="1:1" customFormat="1" ht="134.475" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" customFormat="1" ht="135" customHeight="1">
+    <x:row r="12" spans="1:1" customFormat="1" ht="149.416667" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" customFormat="1" ht="148.5" customHeight="1">
+    <x:row r="13" spans="1:1" customFormat="1" ht="164.358333" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" customFormat="1" ht="162" customHeight="1">
+    <x:row r="14" spans="1:1" customFormat="1" ht="179.3" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" customFormat="1" ht="175.5" customHeight="1">
+    <x:row r="15" spans="1:1" customFormat="1" ht="194.241667" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" customFormat="1" ht="189" customHeight="1">
+    <x:row r="16" spans="1:1" customFormat="1" ht="209.183333" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" customFormat="1" ht="202.5" customHeight="1">
+    <x:row r="17" spans="1:1" customFormat="1" ht="224.125" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" customFormat="1" ht="216" customHeight="1">
+    <x:row r="18" spans="1:1" customFormat="1" ht="239.066667" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" customFormat="1" ht="229.5" customHeight="1">
+    <x:row r="19" spans="1:1" customFormat="1" ht="254.008333" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>60</x:v>
       </x:c>
@@ -3892,7 +3892,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="10.370625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.260625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="255" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3563,24 +3563,24 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="4.570625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="50.600625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="70.174584" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="69.617876" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="68.694739" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="67.412197" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="65.780013" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="63.810607" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="61.518968" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="58.922538" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="56.041076" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="52.896511" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="49.512777" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="45.915625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="42.132432" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="38.19199" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="34.124288" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="29.960284" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="25.731669" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="50.590625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="70.164622" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="69.608028" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="68.685079" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="67.4028" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="65.77095" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="63.801947" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="61.510777" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="58.914877" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="56.034004" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="52.890083" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="49.507041" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="45.910625" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="42.128206" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="38.18857" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="34.1217" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="29.958548" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="25.730798" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">

--- a/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3404,12 +3404,12 @@
     <x:col min="2" max="2" width="29.080625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" customFormat="1" ht="37.85" customHeight="1">
+    <x:row r="1" spans="1:2" customFormat="1" ht="37.74" customHeight="1">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2" customFormat="1" ht="25.9" customHeight="1">
+    <x:row r="2" spans="1:2" customFormat="1" ht="25.82" customHeight="1">
       <x:c r="A2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3662,97 +3662,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" customFormat="1" ht="279" customHeight="1">
+    <x:row r="1" spans="1:1" customFormat="1" ht="278" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="13.95" customHeight="1">
+    <x:row r="2" spans="1:1" customFormat="1" ht="13.9" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="6.975" customHeight="1">
+    <x:row r="3" spans="1:1" customFormat="1" ht="6.95" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="14.725" customHeight="1">
+    <x:row r="4" spans="1:1" customFormat="1" ht="14.672222" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="22.0875" customHeight="1">
+    <x:row r="5" spans="1:1" customFormat="1" ht="22.008333" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="29.45" customHeight="1">
+    <x:row r="6" spans="1:1" customFormat="1" ht="29.344444" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" customFormat="1" ht="36.8125" customHeight="1">
+    <x:row r="7" spans="1:1" customFormat="1" ht="36.680556" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" customFormat="1" ht="44.175" customHeight="1">
+    <x:row r="8" spans="1:1" customFormat="1" ht="44.016667" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" customFormat="1" ht="51.5375" customHeight="1">
+    <x:row r="9" spans="1:1" customFormat="1" ht="51.352778" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" customFormat="1" ht="58.9" customHeight="1">
+    <x:row r="10" spans="1:1" customFormat="1" ht="58.688889" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" customFormat="1" ht="66.2625" customHeight="1">
+    <x:row r="11" spans="1:1" customFormat="1" ht="66.025" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" customFormat="1" ht="73.625" customHeight="1">
+    <x:row r="12" spans="1:1" customFormat="1" ht="73.361111" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" customFormat="1" ht="80.9875" customHeight="1">
+    <x:row r="13" spans="1:1" customFormat="1" ht="80.697222" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" customFormat="1" ht="88.35" customHeight="1">
+    <x:row r="14" spans="1:1" customFormat="1" ht="88.033333" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" customFormat="1" ht="95.7125" customHeight="1">
+    <x:row r="15" spans="1:1" customFormat="1" ht="95.369444" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" customFormat="1" ht="103.075" customHeight="1">
+    <x:row r="16" spans="1:1" customFormat="1" ht="102.705556" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" customFormat="1" ht="110.4375" customHeight="1">
+    <x:row r="17" spans="1:1" customFormat="1" ht="110.041667" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" customFormat="1" ht="117.8" customHeight="1">
+    <x:row r="18" spans="1:1" customFormat="1" ht="117.377778" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" customFormat="1" ht="125.1625" customHeight="1">
+    <x:row r="19" spans="1:1" customFormat="1" ht="124.713889" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -3777,97 +3777,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" customFormat="1" ht="279" customHeight="1">
+    <x:row r="1" spans="1:1" customFormat="1" ht="278" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="71.72" customHeight="1">
+    <x:row r="2" spans="1:1" customFormat="1" ht="71.52" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="14.941667" customHeight="1">
+    <x:row r="3" spans="1:1" customFormat="1" ht="14.9" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="29.883333" customHeight="1">
+    <x:row r="4" spans="1:1" customFormat="1" ht="29.8" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="44.825" customHeight="1">
+    <x:row r="5" spans="1:1" customFormat="1" ht="44.7" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="59.766667" customHeight="1">
+    <x:row r="6" spans="1:1" customFormat="1" ht="59.6" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" customFormat="1" ht="74.708333" customHeight="1">
+    <x:row r="7" spans="1:1" customFormat="1" ht="74.5" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" customFormat="1" ht="89.65" customHeight="1">
+    <x:row r="8" spans="1:1" customFormat="1" ht="89.4" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" customFormat="1" ht="104.591667" customHeight="1">
+    <x:row r="9" spans="1:1" customFormat="1" ht="104.3" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" customFormat="1" ht="119.533333" customHeight="1">
+    <x:row r="10" spans="1:1" customFormat="1" ht="119.2" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" customFormat="1" ht="134.475" customHeight="1">
+    <x:row r="11" spans="1:1" customFormat="1" ht="134.1" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" customFormat="1" ht="149.416667" customHeight="1">
+    <x:row r="12" spans="1:1" customFormat="1" ht="149" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" customFormat="1" ht="164.358333" customHeight="1">
+    <x:row r="13" spans="1:1" customFormat="1" ht="163.9" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" customFormat="1" ht="179.3" customHeight="1">
+    <x:row r="14" spans="1:1" customFormat="1" ht="178.8" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" customFormat="1" ht="194.241667" customHeight="1">
+    <x:row r="15" spans="1:1" customFormat="1" ht="193.7" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" customFormat="1" ht="209.183333" customHeight="1">
+    <x:row r="16" spans="1:1" customFormat="1" ht="208.6" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" customFormat="1" ht="224.125" customHeight="1">
+    <x:row r="17" spans="1:1" customFormat="1" ht="223.5" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" customFormat="1" ht="239.066667" customHeight="1">
+    <x:row r="18" spans="1:1" customFormat="1" ht="238.4" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" customFormat="1" ht="254.008333" customHeight="1">
+    <x:row r="19" spans="1:1" customFormat="1" ht="253.3" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>60</x:v>
       </x:c>

--- a/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3404,12 +3404,12 @@
     <x:col min="2" max="2" width="28.190625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" customFormat="1" ht="41.5039" customHeight="1">
+    <x:row r="1" spans="1:2" ht="41.5039" customHeight="1">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2" customFormat="1" ht="27.669267" customHeight="1">
+    <x:row r="2" spans="1:2" ht="27.669267" customHeight="1">
       <x:c r="A2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3662,97 +3662,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" customFormat="1" ht="304.361925" customHeight="1">
+    <x:row r="1" spans="1:1" ht="304.361925" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="2" spans="1:1" ht="15.218096" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="7.609048" customHeight="1">
+    <x:row r="3" spans="1:1" ht="7.609048" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="16.063546" customHeight="1">
+    <x:row r="4" spans="1:1" ht="16.063546" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="24.095319" customHeight="1">
+    <x:row r="5" spans="1:1" ht="24.095319" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="32.127092" customHeight="1">
+    <x:row r="6" spans="1:1" ht="32.127092" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" customFormat="1" ht="40.158865" customHeight="1">
+    <x:row r="7" spans="1:1" ht="40.158865" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" customFormat="1" ht="48.190638" customHeight="1">
+    <x:row r="8" spans="1:1" ht="48.190638" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" customFormat="1" ht="56.222411" customHeight="1">
+    <x:row r="9" spans="1:1" ht="56.222411" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" customFormat="1" ht="64.254184" customHeight="1">
+    <x:row r="10" spans="1:1" ht="64.254184" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" customFormat="1" ht="72.285957" customHeight="1">
+    <x:row r="11" spans="1:1" ht="72.285957" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" customFormat="1" ht="80.31773" customHeight="1">
+    <x:row r="12" spans="1:1" ht="80.31773" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" customFormat="1" ht="88.349503" customHeight="1">
+    <x:row r="13" spans="1:1" ht="88.349503" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" customFormat="1" ht="96.381276" customHeight="1">
+    <x:row r="14" spans="1:1" ht="96.381276" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" customFormat="1" ht="104.413049" customHeight="1">
+    <x:row r="15" spans="1:1" ht="104.413049" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" customFormat="1" ht="112.444822" customHeight="1">
+    <x:row r="16" spans="1:1" ht="112.444822" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" customFormat="1" ht="120.476595" customHeight="1">
+    <x:row r="17" spans="1:1" ht="120.476595" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" customFormat="1" ht="128.508368" customHeight="1">
+    <x:row r="18" spans="1:1" ht="128.508368" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" customFormat="1" ht="136.540141" customHeight="1">
+    <x:row r="19" spans="1:1" ht="136.540141" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -3777,97 +3777,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" customFormat="1" ht="304.361925" customHeight="1">
+    <x:row r="1" spans="1:1" ht="304.361925" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="83.0078" customHeight="1">
+    <x:row r="2" spans="1:1" ht="83.0078" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="17.293292" customHeight="1">
+    <x:row r="3" spans="1:1" ht="17.293292" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="34.586583" customHeight="1">
+    <x:row r="4" spans="1:1" ht="34.586583" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="51.879875" customHeight="1">
+    <x:row r="5" spans="1:1" ht="51.879875" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="69.173166" customHeight="1">
+    <x:row r="6" spans="1:1" ht="69.173166" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" customFormat="1" ht="86.466458" customHeight="1">
+    <x:row r="7" spans="1:1" ht="86.466458" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" customFormat="1" ht="103.759749" customHeight="1">
+    <x:row r="8" spans="1:1" ht="103.759749" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" customFormat="1" ht="121.053041" customHeight="1">
+    <x:row r="9" spans="1:1" ht="121.053041" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" customFormat="1" ht="138.346333" customHeight="1">
+    <x:row r="10" spans="1:1" ht="138.346333" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" customFormat="1" ht="155.639624" customHeight="1">
+    <x:row r="11" spans="1:1" ht="155.639624" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" customFormat="1" ht="172.932916" customHeight="1">
+    <x:row r="12" spans="1:1" ht="172.932916" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" customFormat="1" ht="190.226207" customHeight="1">
+    <x:row r="13" spans="1:1" ht="190.226207" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" customFormat="1" ht="207.519499" customHeight="1">
+    <x:row r="14" spans="1:1" ht="207.519499" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" customFormat="1" ht="224.81279" customHeight="1">
+    <x:row r="15" spans="1:1" ht="224.81279" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" customFormat="1" ht="242.106082" customHeight="1">
+    <x:row r="16" spans="1:1" ht="242.106082" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" customFormat="1" ht="259.399374" customHeight="1">
+    <x:row r="17" spans="1:1" ht="259.399374" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" customFormat="1" ht="276.692665" customHeight="1">
+    <x:row r="18" spans="1:1" ht="276.692665" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" customFormat="1" ht="293.985957" customHeight="1">
+    <x:row r="19" spans="1:1" ht="293.985957" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>60</x:v>
       </x:c>

--- a/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3400,16 +3400,16 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="32.130625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="29.080625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="33.610625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="30.420625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" customFormat="1" ht="37.74" customHeight="1">
+    <x:row r="1" spans="1:2" customFormat="1" ht="34.02" customHeight="1">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2" customFormat="1" ht="25.82" customHeight="1">
+    <x:row r="2" spans="1:2" customFormat="1" ht="23.28" customHeight="1">
       <x:c r="A2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3462,25 +3462,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="4.570625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="17.500625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="20.111262" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="21.135091" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="20.643631" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="20.376255" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="19.651587" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="19.137172" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="18.201315" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="17.455493" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="16.336882" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="15.382313" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="14.114937" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="12.980625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="11.602993" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="10.323404" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="8.877374" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="7.491387" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="6.020897" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="4.700625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="18.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="20.99837" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="22.072634" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="21.556031" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="21.276803" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="20.515696" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="19.977313" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="18.994828" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="18.213649" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="17.039638" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="16.039398" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="14.709534" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="13.520625" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="12.075314" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="10.73386" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="9.217017" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="7.763779" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="6.221493" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3562,25 +3562,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="4.570625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="50.590625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="70.164622" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="69.608028" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="68.685079" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="67.4028" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="65.77095" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="63.801947" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="61.510777" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="58.914877" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="56.034004" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="52.890083" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="49.507041" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="45.910625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="42.128206" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="38.18857" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="34.1217" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="29.958548" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="25.730798" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="4.700625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="52.980625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="73.505527" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="72.921718" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="71.953642" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="70.608666" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="68.897025" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="66.831747" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="64.42855" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="61.705724" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="58.68399" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="55.386346" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="51.837889" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="48.065625" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="44.098263" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="39.965998" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="35.700277" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="31.333567" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="26.8991" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3662,97 +3662,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" customFormat="1" ht="278" customHeight="1">
+    <x:row r="1" spans="1:1" customFormat="1" ht="250.6" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="13.9" customHeight="1">
+    <x:row r="2" spans="1:1" customFormat="1" ht="12.53" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="6.95" customHeight="1">
+    <x:row r="3" spans="1:1" customFormat="1" ht="6.265" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="14.672222" customHeight="1">
+    <x:row r="4" spans="1:1" customFormat="1" ht="13.226111" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="22.008333" customHeight="1">
+    <x:row r="5" spans="1:1" customFormat="1" ht="19.839167" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="29.344444" customHeight="1">
+    <x:row r="6" spans="1:1" customFormat="1" ht="26.452222" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" customFormat="1" ht="36.680556" customHeight="1">
+    <x:row r="7" spans="1:1" customFormat="1" ht="33.065278" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" customFormat="1" ht="44.016667" customHeight="1">
+    <x:row r="8" spans="1:1" customFormat="1" ht="39.678333" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" customFormat="1" ht="51.352778" customHeight="1">
+    <x:row r="9" spans="1:1" customFormat="1" ht="46.291389" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" customFormat="1" ht="58.688889" customHeight="1">
+    <x:row r="10" spans="1:1" customFormat="1" ht="52.904444" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" customFormat="1" ht="66.025" customHeight="1">
+    <x:row r="11" spans="1:1" customFormat="1" ht="59.5175" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" customFormat="1" ht="73.361111" customHeight="1">
+    <x:row r="12" spans="1:1" customFormat="1" ht="66.130556" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" customFormat="1" ht="80.697222" customHeight="1">
+    <x:row r="13" spans="1:1" customFormat="1" ht="72.743611" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" customFormat="1" ht="88.033333" customHeight="1">
+    <x:row r="14" spans="1:1" customFormat="1" ht="79.356667" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" customFormat="1" ht="95.369444" customHeight="1">
+    <x:row r="15" spans="1:1" customFormat="1" ht="85.969722" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" customFormat="1" ht="102.705556" customHeight="1">
+    <x:row r="16" spans="1:1" customFormat="1" ht="92.582778" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" customFormat="1" ht="110.041667" customHeight="1">
+    <x:row r="17" spans="1:1" customFormat="1" ht="99.195833" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" customFormat="1" ht="117.377778" customHeight="1">
+    <x:row r="18" spans="1:1" customFormat="1" ht="105.808889" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" customFormat="1" ht="124.713889" customHeight="1">
+    <x:row r="19" spans="1:1" customFormat="1" ht="112.421944" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -3777,97 +3777,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" customFormat="1" ht="278" customHeight="1">
+    <x:row r="1" spans="1:1" customFormat="1" ht="250.6" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="71.52" customHeight="1">
+    <x:row r="2" spans="1:1" customFormat="1" ht="64.44" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="14.9" customHeight="1">
+    <x:row r="3" spans="1:1" customFormat="1" ht="13.425" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="29.8" customHeight="1">
+    <x:row r="4" spans="1:1" customFormat="1" ht="26.85" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="44.7" customHeight="1">
+    <x:row r="5" spans="1:1" customFormat="1" ht="40.275" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="59.6" customHeight="1">
+    <x:row r="6" spans="1:1" customFormat="1" ht="53.7" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" customFormat="1" ht="74.5" customHeight="1">
+    <x:row r="7" spans="1:1" customFormat="1" ht="67.125" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" customFormat="1" ht="89.4" customHeight="1">
+    <x:row r="8" spans="1:1" customFormat="1" ht="80.55" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" customFormat="1" ht="104.3" customHeight="1">
+    <x:row r="9" spans="1:1" customFormat="1" ht="93.975" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" customFormat="1" ht="119.2" customHeight="1">
+    <x:row r="10" spans="1:1" customFormat="1" ht="107.4" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" customFormat="1" ht="134.1" customHeight="1">
+    <x:row r="11" spans="1:1" customFormat="1" ht="120.825" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" customFormat="1" ht="149" customHeight="1">
+    <x:row r="12" spans="1:1" customFormat="1" ht="134.25" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" customFormat="1" ht="163.9" customHeight="1">
+    <x:row r="13" spans="1:1" customFormat="1" ht="147.675" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" customFormat="1" ht="178.8" customHeight="1">
+    <x:row r="14" spans="1:1" customFormat="1" ht="161.1" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" customFormat="1" ht="193.7" customHeight="1">
+    <x:row r="15" spans="1:1" customFormat="1" ht="174.525" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" customFormat="1" ht="208.6" customHeight="1">
+    <x:row r="16" spans="1:1" customFormat="1" ht="187.95" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" customFormat="1" ht="223.5" customHeight="1">
+    <x:row r="17" spans="1:1" customFormat="1" ht="201.375" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" customFormat="1" ht="238.4" customHeight="1">
+    <x:row r="18" spans="1:1" customFormat="1" ht="214.8" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" customFormat="1" ht="253.3" customHeight="1">
+    <x:row r="19" spans="1:1" customFormat="1" ht="228.225" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>60</x:v>
       </x:c>
@@ -3892,7 +3892,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.260625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.820625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="255" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3569,7 +3569,7 @@
     <x:col min="5" max="5" width="71.953642" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="70.608666" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="68.897025" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="66.831747" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="66.831746999999993" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="64.42855" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="61.705724" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="58.68399" style="0" customWidth="1"/>

--- a/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3569,7 +3569,7 @@
     <x:col min="5" max="5" width="71.953642" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="70.608666" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="68.897025" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="66.831746999999993" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="66.831747" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="64.42855" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="61.705724" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="58.68399" style="0" customWidth="1"/>

--- a/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3400,16 +3400,16 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="33.610625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="30.420625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="31.493394" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="28.509872" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" customFormat="1" ht="34.02" customHeight="1">
+    <x:row r="1" spans="1:2" customFormat="1" ht="32.770642" customHeight="1">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2" customFormat="1" ht="23.28" customHeight="1">
+    <x:row r="2" spans="1:2" customFormat="1" ht="22.422018" customHeight="1">
       <x:c r="A2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3462,25 +3462,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="4.700625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="18.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="20.99837" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="22.072634" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="21.556031" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="21.276803" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="20.515696" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="19.977313" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="18.994828" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="18.213649" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="17.039638" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="16.039398" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="14.709534" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="13.520625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="12.075314" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="10.73386" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="9.217017" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="7.763779" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="6.221493" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="4.505971" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="17.166487" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="19.721622" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="20.72679" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="20.239899" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="19.983696" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="19.268783" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="18.77032" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="17.849107" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="17.123528" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="16.024006" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="15.093359" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="13.848935" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="12.741497" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="11.389983" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="10.139402" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="8.721864" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="7.366139" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="5.925647" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3562,25 +3562,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="4.700625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="52.980625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="73.505527" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="72.921718" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="71.953642" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="70.608666" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="68.897025" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="66.831747" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="64.42855" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="61.705724" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="58.68399" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="55.386346" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="51.837889" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="48.065625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="44.098263" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="39.965998" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="35.700277" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="31.333567" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="26.8991" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="4.505971" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="49.568338" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="68.742169" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="68.197216" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="67.29357" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="66.038109" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="64.440387" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="62.512564" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="60.269312" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="57.727704" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="54.907082" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="51.828914" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="48.516625" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="44.995425" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="41.292112" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="37.434871" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="33.453057" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="29.376974" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="25.237644" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3662,97 +3662,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" customFormat="1" ht="250.6" customHeight="1">
+    <x:row r="1" spans="1:1" customFormat="1" ht="241.46789" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="12.53" customHeight="1">
+    <x:row r="2" spans="1:1" customFormat="1" ht="12.073394" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="6.265" customHeight="1">
+    <x:row r="3" spans="1:1" customFormat="1" ht="6.036697" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="13.226111" customHeight="1">
+    <x:row r="4" spans="1:1" customFormat="1" ht="12.744139" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="19.839167" customHeight="1">
+    <x:row r="5" spans="1:1" customFormat="1" ht="19.116208" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="26.452222" customHeight="1">
+    <x:row r="6" spans="1:1" customFormat="1" ht="25.488277" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" customFormat="1" ht="33.065278" customHeight="1">
+    <x:row r="7" spans="1:1" customFormat="1" ht="31.860347" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" customFormat="1" ht="39.678333" customHeight="1">
+    <x:row r="8" spans="1:1" customFormat="1" ht="38.232416" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" customFormat="1" ht="46.291389" customHeight="1">
+    <x:row r="9" spans="1:1" customFormat="1" ht="44.604485" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" customFormat="1" ht="52.904444" customHeight="1">
+    <x:row r="10" spans="1:1" customFormat="1" ht="50.976555" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" customFormat="1" ht="59.5175" customHeight="1">
+    <x:row r="11" spans="1:1" customFormat="1" ht="57.348624" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" customFormat="1" ht="66.130556" customHeight="1">
+    <x:row r="12" spans="1:1" customFormat="1" ht="63.720693" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" customFormat="1" ht="72.743611" customHeight="1">
+    <x:row r="13" spans="1:1" customFormat="1" ht="70.092762" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" customFormat="1" ht="79.356667" customHeight="1">
+    <x:row r="14" spans="1:1" customFormat="1" ht="76.464832" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" customFormat="1" ht="85.969722" customHeight="1">
+    <x:row r="15" spans="1:1" customFormat="1" ht="82.836901" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" customFormat="1" ht="92.582778" customHeight="1">
+    <x:row r="16" spans="1:1" customFormat="1" ht="89.20897" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" customFormat="1" ht="99.195833" customHeight="1">
+    <x:row r="17" spans="1:1" customFormat="1" ht="95.58104" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" customFormat="1" ht="105.808889" customHeight="1">
+    <x:row r="18" spans="1:1" customFormat="1" ht="101.953109" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" customFormat="1" ht="112.421944" customHeight="1">
+    <x:row r="19" spans="1:1" customFormat="1" ht="108.325178" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -3777,97 +3777,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" customFormat="1" ht="250.6" customHeight="1">
+    <x:row r="1" spans="1:1" customFormat="1" ht="241.46789" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="64.44" customHeight="1">
+    <x:row r="2" spans="1:1" customFormat="1" ht="62.091743" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="13.425" customHeight="1">
+    <x:row r="3" spans="1:1" customFormat="1" ht="12.93578" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="26.85" customHeight="1">
+    <x:row r="4" spans="1:1" customFormat="1" ht="25.87156" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="40.275" customHeight="1">
+    <x:row r="5" spans="1:1" customFormat="1" ht="38.807339" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="53.7" customHeight="1">
+    <x:row r="6" spans="1:1" customFormat="1" ht="51.743119" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" customFormat="1" ht="67.125" customHeight="1">
+    <x:row r="7" spans="1:1" customFormat="1" ht="64.678899" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" customFormat="1" ht="80.55" customHeight="1">
+    <x:row r="8" spans="1:1" customFormat="1" ht="77.614679" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" customFormat="1" ht="93.975" customHeight="1">
+    <x:row r="9" spans="1:1" customFormat="1" ht="90.550459" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" customFormat="1" ht="107.4" customHeight="1">
+    <x:row r="10" spans="1:1" customFormat="1" ht="103.486239" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" customFormat="1" ht="120.825" customHeight="1">
+    <x:row r="11" spans="1:1" customFormat="1" ht="116.422018" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" customFormat="1" ht="134.25" customHeight="1">
+    <x:row r="12" spans="1:1" customFormat="1" ht="129.357798" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" customFormat="1" ht="147.675" customHeight="1">
+    <x:row r="13" spans="1:1" customFormat="1" ht="142.293578" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" customFormat="1" ht="161.1" customHeight="1">
+    <x:row r="14" spans="1:1" customFormat="1" ht="155.229358" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" customFormat="1" ht="174.525" customHeight="1">
+    <x:row r="15" spans="1:1" customFormat="1" ht="168.165138" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" customFormat="1" ht="187.95" customHeight="1">
+    <x:row r="16" spans="1:1" customFormat="1" ht="181.100917" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" customFormat="1" ht="201.375" customHeight="1">
+    <x:row r="17" spans="1:1" customFormat="1" ht="194.036697" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" customFormat="1" ht="214.8" customHeight="1">
+    <x:row r="18" spans="1:1" customFormat="1" ht="206.972477" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" customFormat="1" ht="228.225" customHeight="1">
+    <x:row r="19" spans="1:1" customFormat="1" ht="219.908257" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>60</x:v>
       </x:c>
@@ -3892,7 +3892,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.820625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.014599" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="255" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3465,17 +3465,17 @@
     <x:col min="1" max="1" width="4.505971" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="17.166487" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="19.721622" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="20.72679" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="20.726789" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="20.239899" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="19.983696" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="19.268783" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="18.77032" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="17.849107" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="18.770319" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="17.849106" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="17.123528" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="16.024006" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="15.093359" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="16.024005" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="15.093358" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="13.848935" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="12.741497" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="12.741496" style="0" customWidth="1"/>
     <x:col min="15" max="15" width="11.389983" style="0" customWidth="1"/>
     <x:col min="16" max="16" width="10.139402" style="0" customWidth="1"/>
     <x:col min="17" max="17" width="8.721864" style="0" customWidth="1"/>
@@ -3578,9 +3578,9 @@
     <x:col min="14" max="14" width="44.995425" style="0" customWidth="1"/>
     <x:col min="15" max="15" width="41.292112" style="0" customWidth="1"/>
     <x:col min="16" max="16" width="37.434871" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="33.453057" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="29.376974" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="25.237644" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="33.453056" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="29.376973" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="25.237643" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">

--- a/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3404,12 +3404,12 @@
     <x:col min="2" max="2" width="28.190625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" ht="41.5039" customHeight="1">
+    <x:row r="1" spans="1:2" ht="44.677734" customHeight="1">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2" ht="27.669267" customHeight="1">
+    <x:row r="2" spans="1:2" ht="29.785156" customHeight="1">
       <x:c r="A2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3563,24 +3563,24 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="2.930625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="51.020625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="61.832986" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="61.271495" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="60.340427" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="59.046868" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="57.400662" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="55.414338" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="53.103012" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="50.484276" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="47.57806" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="44.406482" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="40.993679" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="37.365625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="33.549931" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="29.575638" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="25.472992" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="21.273217" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="17.008275" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="49.890625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="60.107286" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="59.558663" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="58.648931" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="57.385015" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="55.776534" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="53.835729" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="51.57737" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="49.018646" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="46.17903" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="43.080132" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="39.745538" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="36.200625" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="32.472373" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="28.589156" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="24.580527" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="20.476994" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="16.309789" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3662,97 +3662,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" ht="304.361925" customHeight="1">
+    <x:row r="1" spans="1:1" ht="327.636719" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" ht="15.218096" customHeight="1">
+    <x:row r="2" spans="1:1" ht="16.381836" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" ht="7.609048" customHeight="1">
+    <x:row r="3" spans="1:1" ht="8.190918" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" ht="16.063546" customHeight="1">
+    <x:row r="4" spans="1:1" ht="17.291938" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" ht="24.095319" customHeight="1">
+    <x:row r="5" spans="1:1" ht="25.937907" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" ht="32.127092" customHeight="1">
+    <x:row r="6" spans="1:1" ht="34.583876" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" ht="40.158865" customHeight="1">
+    <x:row r="7" spans="1:1" ht="43.229845" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" ht="48.190638" customHeight="1">
+    <x:row r="8" spans="1:1" ht="51.875814" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" ht="56.222411" customHeight="1">
+    <x:row r="9" spans="1:1" ht="60.521783" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" ht="64.254184" customHeight="1">
+    <x:row r="10" spans="1:1" ht="69.167752" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" ht="72.285957" customHeight="1">
+    <x:row r="11" spans="1:1" ht="77.813721" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" ht="80.31773" customHeight="1">
+    <x:row r="12" spans="1:1" ht="86.45969" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" ht="88.349503" customHeight="1">
+    <x:row r="13" spans="1:1" ht="95.105659" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" ht="96.381276" customHeight="1">
+    <x:row r="14" spans="1:1" ht="103.751628" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" ht="104.413049" customHeight="1">
+    <x:row r="15" spans="1:1" ht="112.397597" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" ht="112.444822" customHeight="1">
+    <x:row r="16" spans="1:1" ht="121.043566" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" ht="120.476595" customHeight="1">
+    <x:row r="17" spans="1:1" ht="129.689535" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" ht="128.508368" customHeight="1">
+    <x:row r="18" spans="1:1" ht="138.335503" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" ht="136.540141" customHeight="1">
+    <x:row r="19" spans="1:1" ht="146.981472" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -3777,97 +3777,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" ht="304.361925" customHeight="1">
+    <x:row r="1" spans="1:1" ht="327.636719" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" ht="83.0078" customHeight="1">
+    <x:row r="2" spans="1:1" ht="89.355469" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" ht="17.293292" customHeight="1">
+    <x:row r="3" spans="1:1" ht="18.615723" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" ht="34.586583" customHeight="1">
+    <x:row r="4" spans="1:1" ht="37.231445" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" ht="51.879875" customHeight="1">
+    <x:row r="5" spans="1:1" ht="55.847168" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" ht="69.173166" customHeight="1">
+    <x:row r="6" spans="1:1" ht="74.462891" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" ht="86.466458" customHeight="1">
+    <x:row r="7" spans="1:1" ht="93.078613" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" ht="103.759749" customHeight="1">
+    <x:row r="8" spans="1:1" ht="111.694336" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" ht="121.053041" customHeight="1">
+    <x:row r="9" spans="1:1" ht="130.310059" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" ht="138.346333" customHeight="1">
+    <x:row r="10" spans="1:1" ht="148.925781" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" ht="155.639624" customHeight="1">
+    <x:row r="11" spans="1:1" ht="167.541504" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" ht="172.932916" customHeight="1">
+    <x:row r="12" spans="1:1" ht="186.157227" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" ht="190.226207" customHeight="1">
+    <x:row r="13" spans="1:1" ht="204.772949" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" ht="207.519499" customHeight="1">
+    <x:row r="14" spans="1:1" ht="223.388672" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" ht="224.81279" customHeight="1">
+    <x:row r="15" spans="1:1" ht="242.004395" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" ht="242.106082" customHeight="1">
+    <x:row r="16" spans="1:1" ht="260.620117" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" ht="259.399374" customHeight="1">
+    <x:row r="17" spans="1:1" ht="279.23584" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" ht="276.692665" customHeight="1">
+    <x:row r="18" spans="1:1" ht="297.851562" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" ht="293.985957" customHeight="1">
+    <x:row r="19" spans="1:1" ht="316.467285" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>60</x:v>
       </x:c>

--- a/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3400,16 +3400,16 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="30.790625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="28.190625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="30.890625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="28.290625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" ht="44.677734" customHeight="1">
+    <x:row r="1" spans="1:2" ht="37.5" customHeight="1">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2" ht="29.785156" customHeight="1">
+    <x:row r="2" spans="1:2" ht="25" customHeight="1">
       <x:c r="A2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3462,25 +3462,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="2.930625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.150625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="17.315676" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="18.195145" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="17.902475" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="17.495861" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="16.978396" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="16.354019" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="15.627482" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="14.804314" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="13.89078" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="12.893833" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="11.82106" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="10.680625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="9.481208" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="8.231937" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="6.94232" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="5.622172" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="4.281539" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="3.020625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="16.240625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="17.495334" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="18.36393" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="18.069749" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="17.661036" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="17.1409" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="16.513301" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="15.783014" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="14.955597" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="14.037349" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="13.035256" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="11.956946" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="10.810625" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="9.605018" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="8.349299" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="7.053026" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="5.726064" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="4.378511" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3562,25 +3562,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="2.930625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="49.890625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="60.107286" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="59.558663" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="58.648931" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="57.385015" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="55.776534" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="53.835729" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="51.57737" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="49.018646" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="46.17903" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="43.080132" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="39.745538" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="36.200625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="32.472373" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="28.589156" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="24.580527" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="20.476994" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="16.309789" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="3.020625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="49.930625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="60.987133" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="60.438055" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="59.527568" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="58.262603" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="56.652786" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="54.71037" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="52.450137" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="49.889288" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="47.047314" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="43.945844" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="40.608481" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="37.060625" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="33.329278" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="29.442836" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="25.430879" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="21.32394" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="17.153275" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3662,97 +3662,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" ht="327.636719" customHeight="1">
+    <x:row r="1" spans="1:1" ht="275" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" ht="16.381836" customHeight="1">
+    <x:row r="2" spans="1:1" ht="13.75" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" ht="8.190918" customHeight="1">
+    <x:row r="3" spans="1:1" ht="6.875" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" ht="17.291938" customHeight="1">
+    <x:row r="4" spans="1:1" ht="14.513889" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" ht="25.937907" customHeight="1">
+    <x:row r="5" spans="1:1" ht="21.770833" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" ht="34.583876" customHeight="1">
+    <x:row r="6" spans="1:1" ht="29.027778" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" ht="43.229845" customHeight="1">
+    <x:row r="7" spans="1:1" ht="36.284722" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" ht="51.875814" customHeight="1">
+    <x:row r="8" spans="1:1" ht="43.541667" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" ht="60.521783" customHeight="1">
+    <x:row r="9" spans="1:1" ht="50.798611" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" ht="69.167752" customHeight="1">
+    <x:row r="10" spans="1:1" ht="58.055556" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" ht="77.813721" customHeight="1">
+    <x:row r="11" spans="1:1" ht="65.3125" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" ht="86.45969" customHeight="1">
+    <x:row r="12" spans="1:1" ht="72.569444" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" ht="95.105659" customHeight="1">
+    <x:row r="13" spans="1:1" ht="79.826389" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" ht="103.751628" customHeight="1">
+    <x:row r="14" spans="1:1" ht="87.083333" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" ht="112.397597" customHeight="1">
+    <x:row r="15" spans="1:1" ht="94.340278" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" ht="121.043566" customHeight="1">
+    <x:row r="16" spans="1:1" ht="101.597222" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" ht="129.689535" customHeight="1">
+    <x:row r="17" spans="1:1" ht="108.854167" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" ht="138.335503" customHeight="1">
+    <x:row r="18" spans="1:1" ht="116.111111" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" ht="146.981472" customHeight="1">
+    <x:row r="19" spans="1:1" ht="123.368056" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -3777,97 +3777,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" ht="327.636719" customHeight="1">
+    <x:row r="1" spans="1:1" ht="275" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" ht="89.355469" customHeight="1">
+    <x:row r="2" spans="1:1" ht="75" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" ht="18.615723" customHeight="1">
+    <x:row r="3" spans="1:1" ht="15.625" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" ht="37.231445" customHeight="1">
+    <x:row r="4" spans="1:1" ht="31.25" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" ht="55.847168" customHeight="1">
+    <x:row r="5" spans="1:1" ht="46.875" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" ht="74.462891" customHeight="1">
+    <x:row r="6" spans="1:1" ht="62.5" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" ht="93.078613" customHeight="1">
+    <x:row r="7" spans="1:1" ht="78.125" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" ht="111.694336" customHeight="1">
+    <x:row r="8" spans="1:1" ht="93.75" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" ht="130.310059" customHeight="1">
+    <x:row r="9" spans="1:1" ht="109.375" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" ht="148.925781" customHeight="1">
+    <x:row r="10" spans="1:1" ht="125" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" ht="167.541504" customHeight="1">
+    <x:row r="11" spans="1:1" ht="140.625" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" ht="186.157227" customHeight="1">
+    <x:row r="12" spans="1:1" ht="156.25" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" ht="204.772949" customHeight="1">
+    <x:row r="13" spans="1:1" ht="171.875" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" ht="223.388672" customHeight="1">
+    <x:row r="14" spans="1:1" ht="187.5" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" ht="242.004395" customHeight="1">
+    <x:row r="15" spans="1:1" ht="203.125" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" ht="260.620117" customHeight="1">
+    <x:row r="16" spans="1:1" ht="218.75" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" ht="279.23584" customHeight="1">
+    <x:row r="17" spans="1:1" ht="234.375" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" ht="297.851562" customHeight="1">
+    <x:row r="18" spans="1:1" ht="250" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" ht="316.467285" customHeight="1">
+    <x:row r="19" spans="1:1" ht="265.625" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>60</x:v>
       </x:c>

--- a/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Tall Row</x:t>
   </x:si>
@@ -3400,8 +3400,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="30.890625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="28.290625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="31.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="28.853482" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2" ht="37.5" customHeight="1">
@@ -3409,7 +3409,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2" ht="25" customHeight="1">
+    <x:row r="2" spans="1:2" ht="25.5" customHeight="1">
       <x:c r="A2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3462,25 +3462,24 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="3.020625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.240625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="17.495334" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="18.36393" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="18.069749" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="17.661036" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="17.1409" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="16.513301" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="15.783014" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="14.955597" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="14.037349" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="13.035256" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="11.956946" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="10.810625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="9.605018" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="8.349299" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="7.053026" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="5.726064" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="4.378511" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="1.853482" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="15.996339" style="0" customWidth="1"/>
+    <x:col min="4" max="5" width="16.996339" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="16.853482" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="16.567768" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="16.139196" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="15.567768" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="14.996339" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="14.282054" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="13.424911" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="12.567768" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="11.282054" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="10.282054" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="9.139196" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="7.853482" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="6.424911" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="5.139196" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3562,25 +3561,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="3.020625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="49.930625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="60.987133" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="60.438055" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="59.527568" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="58.262603" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="56.652786" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="54.71037" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="52.450137" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="49.889288" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="47.047314" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="43.945844" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="40.608481" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="37.060625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="33.329278" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="29.442836" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="25.430879" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="21.32394" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="17.153275" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="1.853482" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="51.282054" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="85.853482" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="86.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="85.424911" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="83.710625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="81.282054" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="78.424911" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="74.710625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="70.567768" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="65.853482" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="60.710625" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="55.139196" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="49.282054" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="42.853482" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="35.996339" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="29.139196" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="21.710625" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="14.567768" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3662,97 +3661,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" ht="275" customHeight="1">
+    <x:row r="1" spans="1:1" ht="285" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" ht="13.75" customHeight="1">
+    <x:row r="2" spans="1:1" ht="14.25" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" ht="6.875" customHeight="1">
+    <x:row r="3" spans="1:1" ht="21" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" ht="14.513889" customHeight="1">
+    <x:row r="4" spans="1:1" ht="28.5" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" ht="21.770833" customHeight="1">
+    <x:row r="5" spans="1:1" ht="34.5" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" ht="29.027778" customHeight="1">
+    <x:row r="6" spans="1:1" ht="41.25" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" ht="36.284722" customHeight="1">
+    <x:row r="7" spans="1:1" ht="47.25" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" ht="43.541667" customHeight="1">
+    <x:row r="8" spans="1:1" ht="52.5" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" ht="50.798611" customHeight="1">
+    <x:row r="9" spans="1:1" ht="57.75" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" ht="58.055556" customHeight="1">
+    <x:row r="10" spans="1:1" ht="62.25" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" ht="65.3125" customHeight="1">
+    <x:row r="11" spans="1:1" ht="66.75" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" ht="72.569444" customHeight="1">
+    <x:row r="12" spans="1:1" ht="70.5" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" ht="79.826389" customHeight="1">
+    <x:row r="13" spans="1:1" ht="73.5" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" ht="87.083333" customHeight="1">
+    <x:row r="14" spans="1:1" ht="76.5" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" ht="94.340278" customHeight="1">
+    <x:row r="15" spans="1:1" ht="78.75" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" ht="101.597222" customHeight="1">
+    <x:row r="16" spans="1:1" ht="80.25" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" ht="108.854167" customHeight="1">
+    <x:row r="17" spans="1:1" ht="81" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" ht="116.111111" customHeight="1">
+    <x:row r="18" spans="1:1" ht="81" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" ht="123.368056" customHeight="1">
+    <x:row r="19" spans="1:1" ht="81" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -3777,97 +3776,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" ht="275" customHeight="1">
+    <x:row r="1" spans="1:1" ht="285" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" ht="75" customHeight="1">
+    <x:row r="2" spans="1:1" ht="59.25" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" ht="15.625" customHeight="1">
+    <x:row r="3" spans="1:1" ht="47.25" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" ht="31.25" customHeight="1">
+    <x:row r="4" spans="1:1" ht="75.75" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" ht="46.875" customHeight="1">
+    <x:row r="5" spans="1:1" ht="102.75" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" ht="62.5" customHeight="1">
+    <x:row r="6" spans="1:1" ht="129.75" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" ht="78.125" customHeight="1">
+    <x:row r="7" spans="1:1" ht="155.25" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" ht="93.75" customHeight="1">
+    <x:row r="8" spans="1:1" ht="180" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" ht="109.375" customHeight="1">
+    <x:row r="9" spans="1:1" ht="203.25" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" ht="125" customHeight="1">
+    <x:row r="10" spans="1:1" ht="225" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" ht="140.625" customHeight="1">
+    <x:row r="11" spans="1:1" ht="244.5" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" ht="156.25" customHeight="1">
+    <x:row r="12" spans="1:1" ht="263.25" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" ht="171.875" customHeight="1">
+    <x:row r="13" spans="1:1" ht="279" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" ht="187.5" customHeight="1">
+    <x:row r="14" spans="1:1" ht="293.25" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" ht="203.125" customHeight="1">
+    <x:row r="15" spans="1:1" ht="304.5" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" ht="218.75" customHeight="1">
+    <x:row r="16" spans="1:1" ht="314.25" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" ht="234.375" customHeight="1">
+    <x:row r="17" spans="1:1" ht="321" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" ht="250" customHeight="1">
+    <x:row r="18" spans="1:1" ht="325.5" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" ht="265.625" customHeight="1">
+    <x:row r="19" spans="1:1" ht="327.75" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>60</x:v>
       </x:c>
@@ -3892,7 +3891,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.920625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="11.424911" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="255" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3390,7 +3390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -3452,7 +3452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -3551,7 +3551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -3651,7 +3651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -3766,7 +3766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -3881,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -6,12 +6,12 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Adjust To Contents" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Adjust Widths" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Adjust Widths 2" sheetId="4" r:id="rId4"/>
-    <x:sheet name="Adjust Heights" sheetId="5" r:id="rId5"/>
-    <x:sheet name="Adjust Heights 2" sheetId="6" r:id="rId6"/>
-    <x:sheet name="Absurdly wide column" sheetId="7" r:id="rId7"/>
+    <x:sheet name="Adjust To Contents" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Adjust Widths" sheetId="2" r:id="rId3"/>
+    <x:sheet name="Adjust Widths 2" sheetId="3" r:id="rId4"/>
+    <x:sheet name="Adjust Heights" sheetId="4" r:id="rId5"/>
+    <x:sheet name="Adjust Heights 2" sheetId="5" r:id="rId6"/>
+    <x:sheet name="Absurdly wide column" sheetId="6" r:id="rId7"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
